--- a/FINAL DATA OF PROJECT (1).xlsx
+++ b/FINAL DATA OF PROJECT (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Desktop\SEM_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB5A76-8EFE-4E3F-8C2E-C6E76FAE3689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFC3B9-5C65-4ADA-9F37-3F8DB56DCC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
-    <sheet name="new dv1" sheetId="7" r:id="rId6"/>
+    <sheet name="Faculty vs AI_dep" sheetId="9" r:id="rId5"/>
+    <sheet name="ANOVA" sheetId="10" r:id="rId6"/>
+    <sheet name="AI_dep vs CGPA" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId8"/>
+    <sheet name="new dv1" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$223</definedName>
@@ -26,8 +29,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12681" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12922" uniqueCount="164">
   <si>
     <t>Timestamp</t>
   </si>
@@ -538,6 +541,12 @@
   <si>
     <t>Average of CP_Avg</t>
   </si>
+  <si>
+    <t>AI_dep_score</t>
+  </si>
+  <si>
+    <t>Overall AI_dep Mean</t>
+  </si>
 </sst>
 </file>
 
@@ -959,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,17 +1093,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1105,6 +1114,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1977,7 +2001,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rohan" refreshedDate="46050.513466087963" refreshedVersion="8" recordCount="221" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rohan" refreshedDate="46050.926988078703" refreshedVersion="8" recordCount="221" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Q222" sheet="Sheet2"/>
   </cacheSource>
@@ -11286,7 +11310,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE19F57-5869-4B19-873E-415983E03EB1}" name="PivotTable34" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCE19F57-5869-4B19-873E-415983E03EB1}" name="PivotTable34" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B243:F258" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -11414,7 +11438,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27FC91F7-4573-428C-9581-49DCD35DB870}" name="PivotTable33" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27FC91F7-4573-428C-9581-49DCD35DB870}" name="PivotTable33" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B233:F238" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
@@ -11822,9 +11846,9 @@
   </sheetPr>
   <dimension ref="A1:BV224"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView topLeftCell="BS1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BV220" sqref="BV220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -61734,9 +61758,9 @@
   </sheetPr>
   <dimension ref="A1:AC276"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="31" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M226" sqref="M226:AC276"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE280" sqref="AE280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -75209,7 +75233,7 @@
   </sheetPr>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <selection sqref="A1:H90"/>
     </sheetView>
   </sheetViews>
@@ -77442,8 +77466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43975B7-1A31-4DCC-80F0-633739A55974}">
   <dimension ref="A2:T258"/>
   <sheetViews>
-    <sheetView topLeftCell="C246" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I264" sqref="I264"/>
+    <sheetView topLeftCell="I197" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -93168,6 +93192,3728 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1660BFB5-AE3D-49FE-9A8D-B4A6FF0DB8C6}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2">
+        <v>2.8822222222222225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>2.7128831417624517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>2.9611111111111112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>2.8298611111111116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>2.145833333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>1.6111111111111114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>2.0243055555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <v>2.4305555555555554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>2.1805555555555554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>2.862268518518519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>1.5370370370370372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>2.8267195767195767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B2:B14)</f>
+        <v>2.42555704672084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587EF4F3-C2FA-4DCA-A099-13832287CF6A}">
+  <dimension ref="A1:B222"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>2.0277777777777781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>4.5555555555555562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>3.6388888888888888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>3.2222222222222228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>3.3055555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24">
+        <v>2.9444444444444446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>2.2222222222222219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>3.3611111111111112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30">
+        <v>1.6944444444444444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32">
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <v>2.3055555555555554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>4.6388888888888893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36">
+        <v>4.6388888888888893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>3.9722222222222219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>2.1944444444444446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44">
+        <v>1.4722222222222223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>1.3888888888888891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47">
+        <v>2.2777777777777781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49">
+        <v>3.3611111111111112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51">
+        <v>2.9722222222222219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53">
+        <v>2.2777777777777781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54">
+        <v>2.7777777777777781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>1.6111111111111114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56">
+        <v>1.3611111111111109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57">
+        <v>1.9444444444444446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58">
+        <v>1.2777777777777777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59">
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60">
+        <v>1.7777777777777779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>1.4722222222222223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66">
+        <v>3.1111111111111107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69">
+        <v>3.7777777777777781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>1.8055555555555556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>1.9444444444444446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>2.0555555555555554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1.6944444444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>2.2777777777777781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82">
+        <v>2.8055555555555554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85">
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86">
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87">
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90">
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91">
+        <v>2.4722222222222219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93">
+        <v>2.8611111111111112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95">
+        <v>3.3055555555555554</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96">
+        <v>2.1944444444444446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98">
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102">
+        <v>3.3611111111111112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103">
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>3.7222222222222219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>3.8888888888888888</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113">
+        <v>1.8611111111111114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116">
+        <v>3.3055555555555554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117">
+        <v>1.1944444444444444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122">
+        <v>3.7222222222222219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2.8055555555555554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>2.8611111111111112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129">
+        <v>3.1944444444444446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131">
+        <v>1.8888888888888891</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132">
+        <v>2.4722222222222223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133">
+        <v>3.0277777777777781</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141">
+        <v>2.3611111111111112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146">
+        <v>3.2777777777777772</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149">
+        <v>1.7222222222222223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152">
+        <v>3.6111111111111112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B154">
+        <v>1.5555555555555556</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B156">
+        <v>3.9166666666666665</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B157">
+        <v>3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158">
+        <v>3.4444444444444446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159">
+        <v>3.0277777777777781</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160">
+        <v>2.3888888888888888</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B161">
+        <v>2.9722222222222219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B163">
+        <v>3.7222222222222219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B164">
+        <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B165">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166">
+        <v>3.3055555555555554</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B167">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168">
+        <v>3.1388888888888888</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B169">
+        <v>2.8611111111111112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B171">
+        <v>3.0277777777777781</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B172">
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B173">
+        <v>3.0555555555555558</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B175">
+        <v>3.5555555555555558</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B176">
+        <v>2.4722222222222219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B178">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B179">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B180">
+        <v>3.4722222222222219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B181">
+        <v>3.2222222222222228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B182">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B184">
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B186">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B187">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B188">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189">
+        <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B191">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192">
+        <v>1.8055555555555556</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B193">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B194">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B195">
+        <v>1.6388888888888891</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B196">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B197">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B198">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B199">
+        <v>3.1944444444444446</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B200">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B201">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B203">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B204">
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="13.8">
+      <c r="A205" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B205">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="13.8">
+      <c r="A206" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B206">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="13.8">
+      <c r="A207" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B207">
+        <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="13.8">
+      <c r="A208" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B208">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="13.8">
+      <c r="A209" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B209">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="13.8">
+      <c r="A210" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B210">
+        <v>1.8055555555555556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="13.8">
+      <c r="A211" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B211">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="13.8">
+      <c r="A212" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B212">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="13.8">
+      <c r="A213" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B213">
+        <v>1.6388888888888891</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="13.8">
+      <c r="A214" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B214">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="13.8">
+      <c r="A215" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B215">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="13.8">
+      <c r="A216" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B216">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="13.8">
+      <c r="A217" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B217">
+        <v>3.1944444444444446</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="13.8">
+      <c r="A218" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B218">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="13.8">
+      <c r="A219" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B219">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="13.8">
+      <c r="A220" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="13.8">
+      <c r="A221" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B221">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="13.8">
+      <c r="A222" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B222">
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B91E7F-A40A-43EA-B9B7-1FB9D2EB9474}">
+  <dimension ref="A1:B222"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="72">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="73">
+        <v>7.3</v>
+      </c>
+      <c r="B3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="72">
+        <v>7.2</v>
+      </c>
+      <c r="B4">
+        <v>2.0277777777777781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="73">
+        <v>5.5</v>
+      </c>
+      <c r="B5">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="72">
+        <v>9.1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="73">
+        <v>7.6</v>
+      </c>
+      <c r="B7">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="72">
+        <v>6.46</v>
+      </c>
+      <c r="B8">
+        <v>4.5555555555555562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="73">
+        <v>6.92</v>
+      </c>
+      <c r="B9">
+        <v>3.6388888888888888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="72">
+        <v>5.8</v>
+      </c>
+      <c r="B10">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="73">
+        <v>7.07</v>
+      </c>
+      <c r="B11">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="72">
+        <v>8.5</v>
+      </c>
+      <c r="B12">
+        <v>3.2222222222222228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="73">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B13">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="72">
+        <v>7.6</v>
+      </c>
+      <c r="B14">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="73">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B15">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="72">
+        <v>6.7</v>
+      </c>
+      <c r="B16">
+        <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="B17">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="72">
+        <v>5.4</v>
+      </c>
+      <c r="B18">
+        <v>3.3055555555555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="73">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="72">
+        <v>5.9</v>
+      </c>
+      <c r="B20">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="73">
+        <v>6.2</v>
+      </c>
+      <c r="B21">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="72">
+        <v>6.8</v>
+      </c>
+      <c r="B22">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="73">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="72">
+        <v>6.3</v>
+      </c>
+      <c r="B24">
+        <v>2.9444444444444446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="73">
+        <v>6.2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="72">
+        <v>5.5</v>
+      </c>
+      <c r="B26">
+        <v>2.2222222222222219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="73">
+        <v>7.2</v>
+      </c>
+      <c r="B27">
+        <v>3.3611111111111112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="72">
+        <v>6.62</v>
+      </c>
+      <c r="B28">
+        <v>3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="73">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="72">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>1.6944444444444444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="73">
+        <v>7.21</v>
+      </c>
+      <c r="B31">
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="72">
+        <v>6.2</v>
+      </c>
+      <c r="B32">
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="73">
+        <v>7.3</v>
+      </c>
+      <c r="B33">
+        <v>2.3055555555555554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="72">
+        <v>8.1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="73">
+        <v>7.78</v>
+      </c>
+      <c r="B35">
+        <v>4.6388888888888893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="72">
+        <v>6.89</v>
+      </c>
+      <c r="B36">
+        <v>4.6388888888888893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="73">
+        <v>7.35</v>
+      </c>
+      <c r="B37">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="72">
+        <v>8.1</v>
+      </c>
+      <c r="B38">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="73">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="72">
+        <v>5.8</v>
+      </c>
+      <c r="B40">
+        <v>3.9722222222222219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="73">
+        <v>7.87</v>
+      </c>
+      <c r="B41">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="72">
+        <v>8.65</v>
+      </c>
+      <c r="B42">
+        <v>2.1944444444444446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="73">
+        <v>5.67</v>
+      </c>
+      <c r="B43">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="72">
+        <v>7.23</v>
+      </c>
+      <c r="B44">
+        <v>1.4722222222222223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="73">
+        <v>6.98</v>
+      </c>
+      <c r="B45">
+        <v>1.3888888888888891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="72">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="73">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>2.2777777777777781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="72">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="73">
+        <v>6.21</v>
+      </c>
+      <c r="B49">
+        <v>3.3611111111111112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="72">
+        <v>7.9</v>
+      </c>
+      <c r="B50">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="73">
+        <v>5.99</v>
+      </c>
+      <c r="B51">
+        <v>2.9722222222222219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="72">
+        <v>7.1</v>
+      </c>
+      <c r="B52">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="73">
+        <v>6.45</v>
+      </c>
+      <c r="B53">
+        <v>2.2777777777777781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="72">
+        <v>6.7</v>
+      </c>
+      <c r="B54">
+        <v>2.7777777777777781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="73">
+        <v>7.12</v>
+      </c>
+      <c r="B55">
+        <v>1.6111111111111114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="72">
+        <v>6.1</v>
+      </c>
+      <c r="B56">
+        <v>1.3611111111111109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="73">
+        <v>7.64</v>
+      </c>
+      <c r="B57">
+        <v>1.9444444444444446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="72">
+        <v>7.9</v>
+      </c>
+      <c r="B58">
+        <v>1.2777777777777777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="73">
+        <v>5.4</v>
+      </c>
+      <c r="B59">
+        <v>2.1111111111111112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="72">
+        <v>5.94</v>
+      </c>
+      <c r="B60">
+        <v>1.7777777777777779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="73">
+        <v>5.42</v>
+      </c>
+      <c r="B61">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="72">
+        <v>6.54</v>
+      </c>
+      <c r="B62">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="73">
+        <v>7.6</v>
+      </c>
+      <c r="B63">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="72">
+        <v>8.6</v>
+      </c>
+      <c r="B64">
+        <v>1.4722222222222223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="73">
+        <v>7.2</v>
+      </c>
+      <c r="B65">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="72">
+        <v>7.3</v>
+      </c>
+      <c r="B66">
+        <v>3.1111111111111107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="73">
+        <v>7.58</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="72">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="B69">
+        <v>3.7777777777777781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="72">
+        <v>7.5</v>
+      </c>
+      <c r="B70">
+        <v>1.8055555555555556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="73">
+        <v>6.08</v>
+      </c>
+      <c r="B71">
+        <v>1.9444444444444446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="72">
+        <v>7.5</v>
+      </c>
+      <c r="B72">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="73">
+        <v>6.89</v>
+      </c>
+      <c r="B73">
+        <v>2.0555555555555554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="72">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="73">
+        <v>6.2</v>
+      </c>
+      <c r="B75">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="72">
+        <v>5.5</v>
+      </c>
+      <c r="B76">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="73">
+        <v>6.01</v>
+      </c>
+      <c r="B77">
+        <v>1.6944444444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="72">
+        <v>6.23</v>
+      </c>
+      <c r="B78">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="B79">
+        <v>2.2777777777777781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="72">
+        <v>6.3</v>
+      </c>
+      <c r="B80">
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="B81">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="72">
+        <v>6.6</v>
+      </c>
+      <c r="B82">
+        <v>2.8055555555555554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="73">
+        <v>7.2</v>
+      </c>
+      <c r="B83">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B84">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="73">
+        <v>5.4</v>
+      </c>
+      <c r="B85">
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="72">
+        <v>6.2</v>
+      </c>
+      <c r="B86">
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="73">
+        <v>7.1</v>
+      </c>
+      <c r="B87">
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B88">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="73">
+        <v>5.9</v>
+      </c>
+      <c r="B89">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="72">
+        <v>6.8</v>
+      </c>
+      <c r="B90">
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="B91">
+        <v>2.4722222222222219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="72">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="73">
+        <v>5.7</v>
+      </c>
+      <c r="B93">
+        <v>2.8611111111111112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="72">
+        <v>5.9</v>
+      </c>
+      <c r="B94">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="73">
+        <v>6.3</v>
+      </c>
+      <c r="B95">
+        <v>3.3055555555555554</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="72">
+        <v>6.7</v>
+      </c>
+      <c r="B96">
+        <v>2.1944444444444446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="73">
+        <v>5.4</v>
+      </c>
+      <c r="B97">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="72">
+        <v>6.01</v>
+      </c>
+      <c r="B98">
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="73">
+        <v>6.5</v>
+      </c>
+      <c r="B99">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="72">
+        <v>6.34</v>
+      </c>
+      <c r="B100">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="73">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="72">
+        <v>5.4</v>
+      </c>
+      <c r="B102">
+        <v>3.3611111111111112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="73">
+        <v>6.95</v>
+      </c>
+      <c r="B103">
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="72">
+        <v>5.2</v>
+      </c>
+      <c r="B104">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="B105">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="72">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="73">
+        <v>6.5</v>
+      </c>
+      <c r="B107">
+        <v>3.7222222222222219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="72">
+        <v>6.7</v>
+      </c>
+      <c r="B108">
+        <v>3.8888888888888888</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="73">
+        <v>6.2</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="72">
+        <v>8.36</v>
+      </c>
+      <c r="B110">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="73">
+        <v>5.6</v>
+      </c>
+      <c r="B111">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="72">
+        <v>6.5</v>
+      </c>
+      <c r="B112">
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="73">
+        <v>47</v>
+      </c>
+      <c r="B113">
+        <v>1.8611111111111114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="72">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="73">
+        <v>61.6</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="72">
+        <v>6.8</v>
+      </c>
+      <c r="B116">
+        <v>3.3055555555555554</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="73">
+        <v>7.89</v>
+      </c>
+      <c r="B117">
+        <v>1.1944444444444444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="72">
+        <v>7.5</v>
+      </c>
+      <c r="B118">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="73">
+        <v>6.5</v>
+      </c>
+      <c r="B119">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="72">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="73">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B122">
+        <v>3.7222222222222219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="73">
+        <v>7.6</v>
+      </c>
+      <c r="B123">
+        <v>2.8055555555555554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="72">
+        <v>6.3</v>
+      </c>
+      <c r="B124">
+        <v>2.8611111111111112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="73">
+        <v>6.7</v>
+      </c>
+      <c r="B125">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="72">
+        <v>5.8</v>
+      </c>
+      <c r="B126">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="73">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B128">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="73">
+        <v>7.1</v>
+      </c>
+      <c r="B129">
+        <v>3.1944444444444446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="72">
+        <v>6.3</v>
+      </c>
+      <c r="B130">
+        <v>2.6111111111111112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="73">
+        <v>7.9</v>
+      </c>
+      <c r="B131">
+        <v>1.8888888888888891</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="72">
+        <v>7.1</v>
+      </c>
+      <c r="B132">
+        <v>2.4722222222222223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="73">
+        <v>5.7</v>
+      </c>
+      <c r="B133">
+        <v>3.0277777777777781</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="72">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="73">
+        <v>9</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="72">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="73">
+        <v>9.77</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="72">
+        <v>10</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="72">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="73">
+        <v>7.3</v>
+      </c>
+      <c r="B141">
+        <v>2.3611111111111112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="72">
+        <v>60.16</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="73">
+        <v>6.64</v>
+      </c>
+      <c r="B143">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="72">
+        <v>80</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="73">
+        <v>9</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="72">
+        <v>3.67</v>
+      </c>
+      <c r="B146">
+        <v>3.2777777777777772</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="73">
+        <v>6.04</v>
+      </c>
+      <c r="B147">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="72">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="73">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>1.7222222222222223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="72">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="73">
+        <v>3.7</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="72">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B152">
+        <v>3.6111111111111112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="73">
+        <v>5.7</v>
+      </c>
+      <c r="B153">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="72">
+        <v>6.7</v>
+      </c>
+      <c r="B154">
+        <v>1.5555555555555556</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="73">
+        <v>9.9</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="72">
+        <v>7.2</v>
+      </c>
+      <c r="B156">
+        <v>3.9166666666666665</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="73">
+        <v>6.5</v>
+      </c>
+      <c r="B157">
+        <v>3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="72">
+        <v>6.6</v>
+      </c>
+      <c r="B158">
+        <v>3.4444444444444446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="B159">
+        <v>3.0277777777777781</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B160">
+        <v>2.3888888888888888</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="73">
+        <v>5.8</v>
+      </c>
+      <c r="B161">
+        <v>2.9722222222222219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="72">
+        <v>7.2</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="73">
+        <v>7.4</v>
+      </c>
+      <c r="B163">
+        <v>3.7222222222222219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="72">
+        <v>7.8</v>
+      </c>
+      <c r="B164">
+        <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="B165">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="72">
+        <v>6.4</v>
+      </c>
+      <c r="B166">
+        <v>3.3055555555555554</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="73">
+        <v>7.3</v>
+      </c>
+      <c r="B167">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="72">
+        <v>6.8</v>
+      </c>
+      <c r="B168">
+        <v>3.1388888888888888</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="73">
+        <v>6.8</v>
+      </c>
+      <c r="B169">
+        <v>2.8611111111111112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="72">
+        <v>7.1</v>
+      </c>
+      <c r="B170">
+        <v>3.0555555555555554</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="73">
+        <v>7.1</v>
+      </c>
+      <c r="B171">
+        <v>3.0277777777777781</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="72">
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="73">
+        <v>6.7</v>
+      </c>
+      <c r="B173">
+        <v>3.0555555555555558</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="72">
+        <v>7.8</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="73">
+        <v>7.2</v>
+      </c>
+      <c r="B175">
+        <v>3.5555555555555558</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="72">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B176">
+        <v>2.4722222222222219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="B177">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B178">
+        <v>2.5277777777777781</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="73">
+        <v>7.3</v>
+      </c>
+      <c r="B179">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="72">
+        <v>7.1</v>
+      </c>
+      <c r="B180">
+        <v>3.4722222222222219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="B181">
+        <v>3.2222222222222228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="72">
+        <v>7.8</v>
+      </c>
+      <c r="B182">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="73">
+        <v>7.6</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="72">
+        <v>5.8</v>
+      </c>
+      <c r="B184">
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="73">
+        <v>4.8</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B186">
+        <v>2.6388888888888888</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="73">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="72">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="73">
+        <v>6.8</v>
+      </c>
+      <c r="B189">
+        <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="72">
+        <v>6.7</v>
+      </c>
+      <c r="B190">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="73">
+        <v>6.3</v>
+      </c>
+      <c r="B191">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B192">
+        <v>1.8055555555555556</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="73">
+        <v>7</v>
+      </c>
+      <c r="B193">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="72">
+        <v>7.6</v>
+      </c>
+      <c r="B194">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="73">
+        <v>6.8</v>
+      </c>
+      <c r="B195">
+        <v>1.6388888888888891</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="72">
+        <v>9</v>
+      </c>
+      <c r="B196">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="73">
+        <v>6.3</v>
+      </c>
+      <c r="B197">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="72">
+        <v>7.3</v>
+      </c>
+      <c r="B198">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="B199">
+        <v>3.1944444444444446</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="72">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="73">
+        <v>6.4</v>
+      </c>
+      <c r="B201">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="72">
+        <v>7.5</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="73">
+        <v>5.7</v>
+      </c>
+      <c r="B203">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="72">
+        <v>4.8</v>
+      </c>
+      <c r="B204">
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="73">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="72">
+        <v>6.8</v>
+      </c>
+      <c r="B206">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="73">
+        <v>6.7</v>
+      </c>
+      <c r="B207">
+        <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="72">
+        <v>6.3</v>
+      </c>
+      <c r="B208">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="B209">
+        <v>3.2777777777777781</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="72">
+        <v>7</v>
+      </c>
+      <c r="B210">
+        <v>1.8055555555555556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="73">
+        <v>7.6</v>
+      </c>
+      <c r="B211">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="72">
+        <v>6.8</v>
+      </c>
+      <c r="B212">
+        <v>2.6944444444444446</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="73">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <v>1.6388888888888891</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="72">
+        <v>6.3</v>
+      </c>
+      <c r="B214">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="73">
+        <v>7.3</v>
+      </c>
+      <c r="B215">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="72">
+        <v>6.9</v>
+      </c>
+      <c r="B216">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="73">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>3.1944444444444446</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="72">
+        <v>6.4</v>
+      </c>
+      <c r="B218">
+        <v>3.7777777777777772</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="B219">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="72">
+        <v>5.7</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="73">
+        <v>4.8</v>
+      </c>
+      <c r="B221">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="13.8">
+      <c r="A222" s="74">
+        <v>6.4</v>
+      </c>
+      <c r="B222">
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF91027-6931-4C44-9E05-FE03535FC2F1}">
   <dimension ref="A1:A222"/>
   <sheetViews>
@@ -94293,11 +98039,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2ABD80-633D-4980-8EA5-9408649721C9}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="106" workbookViewId="0">
       <selection sqref="A1:O16"/>
     </sheetView>
   </sheetViews>
@@ -94313,28 +98059,28 @@
       <c r="C1" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="60" t="s">
+      <c r="E1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="K1" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="60" t="s">
+      <c r="I1" s="59"/>
+      <c r="K1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="60" t="s">
+      <c r="M1" s="59"/>
+      <c r="N1" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="61"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:15" ht="29.4" thickBot="1">
       <c r="A2" s="56" t="s">
@@ -94346,7 +98092,7 @@
       <c r="C2" s="57">
         <v>9</v>
       </c>
-      <c r="E2" s="59"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="56" t="s">
         <v>77</v>
       </c>
@@ -94359,7 +98105,7 @@
       <c r="I2" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="56" t="s">
         <v>79</v>
       </c>
